--- a/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/E/AngVel/sample3_csv/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/OTIS_Four_Bar/RMSE_Results/E/AngVel/sample3_csv/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\OTIS_Four_Bar\RMSE_Results\E\AngVel\sample3_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550E33C3-E6BD-4418-85AB-DDEDEBE3B5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7F69FA-6A28-4863-90F2-9DE93FCA4C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{64FD2AC1-813F-42A5-B5F4-085572107A8E}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{AE7C809C-2D2B-463B-A415-E6AD395EAF4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB936419-AE02-46A8-A1BA-95F13B628ECC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{712415AF-3AB4-4A76-A1D0-5C10E8F5535C}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
